--- a/非受控文档/过程文档/优先级打分表（改）/需求总优先级打分表排序.xlsx
+++ b/非受控文档/过程文档/优先级打分表（改）/需求总优先级打分表排序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
-  <si>
-    <t>软件工程系列课程教学辅助网站需求总优先级打分表（作者：G18）教师：学生：管理员：游客=</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
+  <si>
+    <t>软件工程系列课程教学辅助网站需求总优先级打分表（作者：G18）客户：教师：学生：管理员：游客=1.5：1：1：1：0.5</t>
   </si>
   <si>
     <t>功能名称</t>
@@ -28,27 +28,348 @@
     <t>优先级</t>
   </si>
   <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>通过管理员账号密码登录系统</t>
+  </si>
+  <si>
+    <t>处理用户注册申请</t>
+  </si>
+  <si>
+    <t>在用户注册后接受用户注册信息，审核并选择是否通过用户注册，并给用户标明身份</t>
+  </si>
+  <si>
+    <t>删除用户</t>
+  </si>
+  <si>
+    <t>对指定用户进行删除</t>
+  </si>
+  <si>
+    <t>重置密码</t>
+  </si>
+  <si>
+    <t>对提出申请的用户进行审核，并将其密码重置为默认值（123456）</t>
+  </si>
+  <si>
+    <t>禁言用户</t>
+  </si>
+  <si>
+    <t>对指定用户进行禁言操作并选择禁言时间，被禁言用户在指定时间内无法发帖与回复</t>
+  </si>
+  <si>
+    <t>解封用户</t>
+  </si>
+  <si>
+    <t>对禁言用户进行解封，恢复其权限</t>
+  </si>
+  <si>
+    <t>修改用户信息</t>
+  </si>
+  <si>
+    <t>修改指定用户的信息（邮箱、手机等可修改信息）</t>
+  </si>
+  <si>
+    <t>备份</t>
+  </si>
+  <si>
+    <t>手动备份网站数据状态，并添加备份摘要</t>
+  </si>
+  <si>
+    <t>恢复</t>
+  </si>
+  <si>
+    <t>通过指定恢复点对网站进行恢复</t>
+  </si>
+  <si>
+    <t>删除备份记录</t>
+  </si>
+  <si>
+    <t>删除指定的备份点</t>
+  </si>
+  <si>
+    <t>添加课程</t>
+  </si>
+  <si>
+    <t>教师申请开课后发送资料到管理员处，审核完毕后选择通过，填写相关内容后开启课程</t>
+  </si>
+  <si>
+    <t>删除课程</t>
+  </si>
+  <si>
+    <t>删除指定课程</t>
+  </si>
+  <si>
+    <t>添加课程公告</t>
+  </si>
+  <si>
+    <t>对指定课程添加课程公告</t>
+  </si>
+  <si>
+    <t>删除课程公告</t>
+  </si>
+  <si>
+    <t>对指定课程删除课程公告</t>
+  </si>
+  <si>
+    <t>修改课程公告</t>
+  </si>
+  <si>
+    <t>对指定课程修改课程公告</t>
+  </si>
+  <si>
+    <t>添加课程介绍</t>
+  </si>
+  <si>
+    <t>对指定课程添加课程介绍</t>
+  </si>
+  <si>
+    <t>修改课程介绍</t>
+  </si>
+  <si>
+    <t>对指定课程修改课程介绍</t>
+  </si>
+  <si>
+    <t>删除课程介绍</t>
+  </si>
+  <si>
+    <t>对指定课程删除课程介绍</t>
+  </si>
+  <si>
+    <t>添加教师介绍</t>
+  </si>
+  <si>
+    <t>对指定课程添加教师介绍</t>
+  </si>
+  <si>
+    <t>修改教师介绍</t>
+  </si>
+  <si>
+    <t>对指定课程修改教师介绍</t>
+  </si>
+  <si>
+    <t>删除教师介绍</t>
+  </si>
+  <si>
+    <t>对指定课程删除教师介绍</t>
+  </si>
+  <si>
+    <t>添加课程资料</t>
+  </si>
+  <si>
+    <t>对指定课程添加课程资料</t>
+  </si>
+  <si>
+    <t>删除课程资料</t>
+  </si>
+  <si>
+    <t>对指定课程删除课程资料</t>
+  </si>
+  <si>
+    <t>添加课程相关链接</t>
+  </si>
+  <si>
+    <t>对指定课程添加相关链接</t>
+  </si>
+  <si>
+    <t>修改课程相关链接</t>
+  </si>
+  <si>
+    <t>对指定课程修改相关链接</t>
+  </si>
+  <si>
+    <t>删除课程相关链接</t>
+  </si>
+  <si>
+    <t>对指定课程删除相关链接</t>
+  </si>
+  <si>
+    <t>设定答疑时间</t>
+  </si>
+  <si>
+    <t>对指定课程设定答疑时间</t>
+  </si>
+  <si>
+    <t>修改答疑时间</t>
+  </si>
+  <si>
+    <t>对指定课程修改答疑时间</t>
+  </si>
+  <si>
+    <t>延时答疑</t>
+  </si>
+  <si>
+    <t>对指定课程答疑延时</t>
+  </si>
+  <si>
+    <t>删除答疑</t>
+  </si>
+  <si>
+    <t>对指定课程删除答疑</t>
+  </si>
+  <si>
+    <t>添加答疑记录</t>
+  </si>
+  <si>
+    <t>对指定课程添加答疑记录</t>
+  </si>
+  <si>
+    <t>删除答疑记录</t>
+  </si>
+  <si>
+    <t>对指定课程删除答疑记录</t>
+  </si>
+  <si>
+    <t>发帖</t>
+  </si>
+  <si>
+    <t>以管理员身份在论坛发帖</t>
+  </si>
+  <si>
+    <t>回复</t>
+  </si>
+  <si>
+    <t>在论坛对帖子进行回复</t>
+  </si>
+  <si>
+    <t>删帖</t>
+  </si>
+  <si>
+    <t>删除论坛帖子</t>
+  </si>
+  <si>
+    <t>删回复</t>
+  </si>
+  <si>
+    <t>删除论坛回复</t>
+  </si>
+  <si>
+    <t>加精帖子</t>
+  </si>
+  <si>
+    <t>对论坛的帖子进行加精</t>
+  </si>
+  <si>
+    <t>撤销加精</t>
+  </si>
+  <si>
+    <t>撤销加精帖子的精品</t>
+  </si>
+  <si>
+    <t>置顶帖子</t>
+  </si>
+  <si>
+    <t>对论坛的帖子进行置顶</t>
+  </si>
+  <si>
+    <t>撤销置顶</t>
+  </si>
+  <si>
+    <t>撤销置顶帖子的置顶</t>
+  </si>
+  <si>
+    <t>查询课程</t>
+  </si>
+  <si>
+    <t>通过关键字、教师、时间三种方式查询课程</t>
+  </si>
+  <si>
+    <t>课程搜索</t>
+  </si>
+  <si>
+    <t>在相关课程下进行搜索</t>
+  </si>
+  <si>
+    <t>查询帖子</t>
+  </si>
+  <si>
+    <t>通过关键字、时间两种方式查询帖子</t>
+  </si>
+  <si>
+    <t>查询访问量</t>
+  </si>
+  <si>
+    <t>通过图表方式查看网站历史访问量</t>
+  </si>
+  <si>
+    <t>查询发帖数</t>
+  </si>
+  <si>
+    <t>通过图表方式查看网站历史发帖数</t>
+  </si>
+  <si>
+    <t>查询注册量</t>
+  </si>
+  <si>
+    <t>通过图表方式查看网站历史注册量</t>
+  </si>
+  <si>
+    <t>查询用户</t>
+  </si>
+  <si>
+    <t>通过关键字、身份类别、注册时间三种方式查询指定用户</t>
+  </si>
+  <si>
+    <t>查询申诉</t>
+  </si>
+  <si>
+    <t>通过关键字、处理状态、申诉类别、时间四种方式查询指定用户</t>
+  </si>
+  <si>
+    <t>查询用户操作日志</t>
+  </si>
+  <si>
+    <t>通过关键字、操作类别、时间三种方式查询指定用户操作</t>
+  </si>
+  <si>
+    <t>查询举报</t>
+  </si>
+  <si>
+    <t>通过关键字、时间、被举报次数三种方式查询被举报用户</t>
+  </si>
+  <si>
+    <t>添加网站友情链接</t>
+  </si>
+  <si>
+    <t>对网站添加友情链接</t>
+  </si>
+  <si>
+    <t>删除网站友情链接</t>
+  </si>
+  <si>
+    <t>对网站删除友情链接</t>
+  </si>
+  <si>
+    <t>管理员关于我们</t>
+  </si>
+  <si>
+    <t>对开发人员的信息进行修改</t>
+  </si>
+  <si>
+    <t>管理员联系我们</t>
+  </si>
+  <si>
+    <t>对管理员的信息进行修改</t>
+  </si>
+  <si>
+    <t>管理员帮助中心</t>
+  </si>
+  <si>
+    <t>点击帮助中心可下载网站用户手册</t>
+  </si>
+  <si>
     <t>发布课程公告</t>
   </si>
   <si>
     <t>教师有权在自己开设的课程中发布课程公告</t>
   </si>
   <si>
-    <t>修改课程介绍</t>
-  </si>
-  <si>
     <t>有权修改课程介绍</t>
   </si>
   <si>
-    <t>删除课程公告</t>
-  </si>
-  <si>
     <t>在自己往期发布中的公告中删除往期公告</t>
   </si>
   <si>
-    <t>修改教师介绍</t>
-  </si>
-  <si>
     <t>有权修改教师介绍</t>
   </si>
   <si>
@@ -58,7 +379,7 @@
     <t>教师有权在已开设的课程列表中关闭课程</t>
   </si>
   <si>
-    <t>*删除回复</t>
+    <t>删除回复</t>
   </si>
   <si>
     <t>可以删除自己发表的回复</t>
@@ -76,13 +397,13 @@
     <t>教师在忘记密码的情况下可以通过管理员重置方式或者发送邮箱验证码的方式进行面找回</t>
   </si>
   <si>
-    <t>*在线预览、下载答疑记录</t>
+    <t>在线预览、下载答疑记录</t>
   </si>
   <si>
     <t>教师可以在线预览往期的答疑记录并且能够下载</t>
   </si>
   <si>
-    <t>*搜索消息</t>
+    <t>搜索消息</t>
   </si>
   <si>
     <t>教师有“我的消息”来接受系统通知，回复我的信息或者是关注课程信息列表，教师可以根据消息分类筛选和关键字搜索相关信息</t>
@@ -100,9 +421,6 @@
     <t>通过教工号，学校的邮箱，姓名和密码进行注册，发送注册信息至管理员由管理员审核</t>
   </si>
   <si>
-    <t>删除课程资料</t>
-  </si>
-  <si>
     <t>教师可以在删除课程资料</t>
   </si>
   <si>
@@ -154,15 +472,12 @@
     <t>教师可以在自己开设的课程资料中上传课程资料</t>
   </si>
   <si>
-    <t>*课程论坛删除别人的帖子</t>
+    <t>课程论坛删除别人的帖子</t>
   </si>
   <si>
     <t>教师有权可以在课程论坛中管理删除帖子，相当于一个小吧主</t>
   </si>
   <si>
-    <t>课程搜索</t>
-  </si>
-  <si>
     <t>教师可以输入关键字在自己开设的课程内总搜索，像百度形式返回结果列表</t>
   </si>
   <si>
@@ -178,19 +493,16 @@
     <t>在课程答疑中关闭结束答疑并且有1分钟的缓冲时间</t>
   </si>
   <si>
-    <t>删除答疑记录</t>
-  </si>
-  <si>
     <t>教师可以删除往期的答疑记录</t>
   </si>
   <si>
-    <t>*置顶、加精帖子</t>
+    <t>置顶、加精帖子</t>
   </si>
   <si>
     <t>教师有权在自己的课程论坛下置顶加精帖子</t>
   </si>
   <si>
-    <t>*举报帖子、用户</t>
+    <t>举报帖子、用户</t>
   </si>
   <si>
     <t>教师可以在帖子对不良帖子和用户进行举报</t>
@@ -214,15 +526,12 @@
     <t>教师可以下载、在线预览课程资料</t>
   </si>
   <si>
-    <t>*关注、取关课程和教师</t>
+    <t>关注、取关课程和教师</t>
   </si>
   <si>
     <t>教师可以关注全网自己感兴趣的课程、教师，可以在“我的关注”中取关</t>
   </si>
   <si>
-    <t>延时答疑</t>
-  </si>
-  <si>
     <t>教师在课程答疑快要结束了，可以延时答疑</t>
   </si>
   <si>
@@ -238,9 +547,6 @@
     <t>可以在总论坛和课程论坛回复帖子（包括可以上传附件和图片）</t>
   </si>
   <si>
-    <t>修改答疑时间</t>
-  </si>
-  <si>
     <t>教师因特殊原因可以在答疑开始前30分钟修改答疑时间</t>
   </si>
   <si>
@@ -250,310 +556,16 @@
     <t>教师可以进行在线答疑，在发送内容的时候可以上传附件和图片</t>
   </si>
   <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>通过管理员账号密码登录系统</t>
-  </si>
-  <si>
-    <t>注销</t>
-  </si>
-  <si>
-    <t>退出管理员登录状态</t>
-  </si>
-  <si>
-    <t>处理用户注册申请</t>
-  </si>
-  <si>
-    <t>在用户注册后接受用户注册信息，审核并选择是否通过用户注册，并给用户标明身份</t>
-  </si>
-  <si>
-    <t>删除用户</t>
-  </si>
-  <si>
-    <t>对指定用户进行删除</t>
-  </si>
-  <si>
-    <t>重置密码</t>
-  </si>
-  <si>
-    <t>对提出申请的用户进行审核，并将其密码重置为默认值（123456）</t>
-  </si>
-  <si>
-    <t>禁言用户</t>
-  </si>
-  <si>
-    <t>对指定用户进行禁言操作并选择禁言时间，被禁言用户在指定时间内无法发帖与回复</t>
-  </si>
-  <si>
-    <t>解封用户</t>
-  </si>
-  <si>
-    <t>对禁言用户进行解封，恢复其权限</t>
-  </si>
-  <si>
-    <t>修改用户信息</t>
-  </si>
-  <si>
-    <t>修改指定用户的信息（邮箱、手机等可修改信息）</t>
-  </si>
-  <si>
-    <t>添加校外用户</t>
-  </si>
-  <si>
-    <t>在教师处得到相关信息后，手动添加一个用户，其中学工号标识为零</t>
-  </si>
-  <si>
-    <t>备份</t>
-  </si>
-  <si>
-    <t>手动备份网站数据状态，并添加备份摘要</t>
-  </si>
-  <si>
-    <t>恢复</t>
-  </si>
-  <si>
-    <t>通过指定恢复点对网站进行恢复</t>
-  </si>
-  <si>
-    <t>删除备份记录</t>
-  </si>
-  <si>
-    <t>删除指定的备份点</t>
-  </si>
-  <si>
-    <t>添加课程</t>
-  </si>
-  <si>
-    <t>教师申请开课后发送资料到管理员处，审核完毕后选择通过，填写相关内容后开启课程</t>
-  </si>
-  <si>
-    <t>删除课程</t>
-  </si>
-  <si>
-    <t>删除指定课程</t>
-  </si>
-  <si>
-    <t>添加课程公告</t>
-  </si>
-  <si>
-    <t>对指定课程添加课程公告</t>
-  </si>
-  <si>
-    <t>对指定课程删除课程公告</t>
-  </si>
-  <si>
-    <t>修改课程公告</t>
-  </si>
-  <si>
-    <t>对指定课程修改课程公告</t>
-  </si>
-  <si>
-    <t>添加课程介绍</t>
-  </si>
-  <si>
-    <t>对指定课程添加课程介绍</t>
-  </si>
-  <si>
-    <t>对指定课程修改课程介绍</t>
-  </si>
-  <si>
-    <t>删除课程介绍</t>
-  </si>
-  <si>
-    <t>对指定课程删除课程介绍</t>
-  </si>
-  <si>
-    <t>添加教师介绍</t>
-  </si>
-  <si>
-    <t>对指定课程添加教师介绍</t>
-  </si>
-  <si>
-    <t>对指定课程修改教师介绍</t>
-  </si>
-  <si>
-    <t>删除教师介绍</t>
-  </si>
-  <si>
-    <t>对指定课程删除教师介绍</t>
-  </si>
-  <si>
-    <t>添加课程资料</t>
-  </si>
-  <si>
-    <t>对指定课程添加课程资料</t>
-  </si>
-  <si>
-    <t>对指定课程删除课程资料</t>
-  </si>
-  <si>
-    <t>添加课程相关链接</t>
-  </si>
-  <si>
-    <t>对指定课程添加相关链接</t>
-  </si>
-  <si>
-    <t>修改课程相关链接</t>
-  </si>
-  <si>
-    <t>对指定课程修改相关链接</t>
-  </si>
-  <si>
-    <t>删除课程相关链接</t>
-  </si>
-  <si>
-    <t>对指定课程删除相关链接</t>
-  </si>
-  <si>
-    <t>设定答疑时间</t>
-  </si>
-  <si>
-    <t>对指定课程设定答疑时间</t>
-  </si>
-  <si>
-    <t>对指定课程修改答疑时间</t>
-  </si>
-  <si>
-    <t>对指定课程答疑延时</t>
-  </si>
-  <si>
-    <t>删除答疑</t>
-  </si>
-  <si>
-    <t>对指定课程删除答疑</t>
-  </si>
-  <si>
-    <t>添加答疑记录</t>
-  </si>
-  <si>
-    <t>对指定课程添加答疑记录</t>
-  </si>
-  <si>
-    <t>对指定课程删除答疑记录</t>
-  </si>
-  <si>
-    <t>发帖</t>
-  </si>
-  <si>
-    <t>以管理员身份在论坛发帖</t>
-  </si>
-  <si>
-    <t>回复</t>
-  </si>
-  <si>
-    <t>在论坛对帖子进行回复</t>
-  </si>
-  <si>
-    <t>删帖</t>
-  </si>
-  <si>
-    <t>删除论坛帖子</t>
-  </si>
-  <si>
-    <t>删回复</t>
-  </si>
-  <si>
-    <t>删除论坛回复</t>
-  </si>
-  <si>
-    <t>加精帖子</t>
-  </si>
-  <si>
-    <t>对论坛的帖子进行加精</t>
-  </si>
-  <si>
-    <t>撤销加精</t>
-  </si>
-  <si>
-    <t>撤销加精帖子的精品</t>
-  </si>
-  <si>
-    <t>置顶帖子</t>
-  </si>
-  <si>
-    <t>对论坛的帖子进行置顶</t>
-  </si>
-  <si>
-    <t>撤销置顶</t>
-  </si>
-  <si>
-    <t>撤销置顶帖子的置顶</t>
-  </si>
-  <si>
-    <t>查询课程</t>
-  </si>
-  <si>
-    <t>通过关键字、教师、时间三种方式查询课程</t>
-  </si>
-  <si>
-    <t>在相关课程下进行搜索</t>
-  </si>
-  <si>
-    <t>查询帖子</t>
-  </si>
-  <si>
-    <t>通过关键字、时间两种方式查询帖子</t>
-  </si>
-  <si>
-    <t>查询访问量</t>
-  </si>
-  <si>
-    <t>通过图表方式查看网站历史访问量</t>
-  </si>
-  <si>
-    <t>查询发帖数</t>
-  </si>
-  <si>
-    <t>通过图表方式查看网站历史发帖数</t>
-  </si>
-  <si>
-    <t>查询注册量</t>
-  </si>
-  <si>
-    <t>通过图表方式查看网站历史注册量</t>
-  </si>
-  <si>
-    <t>查询用户</t>
-  </si>
-  <si>
-    <t>通过关键字、身份类别、注册时间三种方式查询指定用户</t>
-  </si>
-  <si>
-    <t>查询申诉</t>
-  </si>
-  <si>
-    <t>通过关键字、处理状态、申诉类别、时间四种方式查询指定用户</t>
-  </si>
-  <si>
-    <t>查询用户操作日志</t>
-  </si>
-  <si>
-    <t>通过关键字、操作类别、时间三种方式查询指定用户操作</t>
-  </si>
-  <si>
-    <t>查询举报</t>
-  </si>
-  <si>
-    <t>通过关键字、时间、被举报次数三种方式查询被举报用户</t>
-  </si>
-  <si>
-    <t>添加网站友情链接</t>
-  </si>
-  <si>
-    <t>对网站添加友情链接</t>
-  </si>
-  <si>
-    <t>修改网站友情链接</t>
-  </si>
-  <si>
-    <t>对网站修改友情链接</t>
-  </si>
-  <si>
-    <t>删除网站友情链接</t>
-  </si>
-  <si>
-    <t>对网站删除友情链接</t>
+    <t>取消置顶、取消加精帖子</t>
+  </si>
+  <si>
+    <t>教师有权在自己的课程论坛下取消置顶，取消加精帖子</t>
+  </si>
+  <si>
+    <t>中途保存答疑记录</t>
+  </si>
+  <si>
+    <t>教师在在线答疑的时候可以中途保存答疑记录</t>
   </si>
   <si>
     <t>学生注册</t>
@@ -577,24 +589,15 @@
     <t>学生可以对“我的消息”中的消息进行删除</t>
   </si>
   <si>
-    <t>搜索消息</t>
-  </si>
-  <si>
     <t>学生有“我的消息”来接受系统通知，回复我的信息或者是关注课程信息列表，学生可以根据消息分类筛选和关键字搜索相关信息</t>
   </si>
   <si>
     <t>学生可以在帖子中的附件或答疑信息中的附件进行下载</t>
   </si>
   <si>
-    <t>举报帖子、用户</t>
-  </si>
-  <si>
     <t>学生可以在帖子对不良帖子和用户进行举报</t>
   </si>
   <si>
-    <t>删除回复</t>
-  </si>
-  <si>
     <t>学生可以下载、在线预览课程资料</t>
   </si>
   <si>
@@ -610,9 +613,6 @@
     <t>学生可以在网站底部的意见反馈中填写意见反馈内容（如向管理员申诉信息等）</t>
   </si>
   <si>
-    <t>在线预览、下载答疑记录</t>
-  </si>
-  <si>
     <t>学生可以在线预览往期的答疑记录并且刻意下载</t>
   </si>
   <si>
@@ -620,6 +620,12 @@
   </si>
   <si>
     <t>学生可以关注全网自己感兴趣的课程、学生，可以在“我的关注”中取关</t>
+  </si>
+  <si>
+    <t>游客游览首页</t>
+  </si>
+  <si>
+    <t>游客仅仅可以浏览首页</t>
   </si>
 </sst>
 </file>
@@ -628,8 +634,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -661,8 +667,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,91 +750,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,9 +765,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,16 +781,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,187 +820,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,9 +1016,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,30 +1065,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1067,26 +1075,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,6 +1093,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1113,10 +1119,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1125,137 +1131,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1271,14 +1277,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1599,10 +1611,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1642,7 +1654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:2">
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1650,15 +1662,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:2">
+    <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:2">
+    <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1666,39 +1678,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:2">
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:2">
+    <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:2">
+    <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:2">
+    <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:2">
+    <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -1706,7 +1718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:2">
+    <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1714,7 +1726,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:2">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1722,15 +1734,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:2">
+    <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:2">
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -1738,7 +1750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:2">
+    <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -1746,7 +1758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:2">
+    <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
@@ -1754,7 +1766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:2">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -1762,7 +1774,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:2">
+    <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
@@ -1770,7 +1782,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:2">
+    <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -1778,7 +1790,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:2">
+    <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
@@ -1786,7 +1798,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:2">
+    <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
@@ -1794,7 +1806,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:2">
+    <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
@@ -1802,7 +1814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:2">
+    <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -1810,7 +1822,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:2">
+    <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
@@ -1818,7 +1830,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:2">
+    <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -1826,7 +1838,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:2">
+    <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
         <v>50</v>
       </c>
@@ -1834,7 +1846,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:2">
+    <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
@@ -1842,7 +1854,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:2">
+    <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
@@ -1850,7 +1862,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:2">
+    <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
@@ -1858,7 +1870,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:2">
+    <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
         <v>58</v>
       </c>
@@ -1866,7 +1878,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:2">
+    <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
@@ -1874,7 +1886,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:2">
+    <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
         <v>62</v>
       </c>
@@ -1882,7 +1894,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:2">
+    <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
         <v>64</v>
       </c>
@@ -1890,7 +1902,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:2">
+    <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
         <v>66</v>
       </c>
@@ -1898,7 +1910,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:2">
+    <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
         <v>68</v>
       </c>
@@ -1906,7 +1918,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:2">
+    <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
         <v>70</v>
       </c>
@@ -1914,7 +1926,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:2">
+    <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
         <v>72</v>
       </c>
@@ -1922,7 +1934,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:2">
+    <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
         <v>74</v>
       </c>
@@ -1930,7 +1942,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:2">
+    <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
         <v>76</v>
       </c>
@@ -1939,79 +1951,79 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -2019,7 +2031,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -2027,515 +2039,543 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B52" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="6" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="6" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="6" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="6" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="6" t="s">
+      <c r="B56" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="6" t="s">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="6" t="s">
+      <c r="B57" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="6" t="s">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="6" t="s">
+    <row r="59" ht="14.25" spans="1:2">
+      <c r="A59" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="6" t="s">
+    <row r="60" ht="14.25" spans="1:2">
+      <c r="A60" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="6" t="s">
+    </row>
+    <row r="61" ht="14.25" spans="1:2">
+      <c r="A61" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="6" t="s">
+    <row r="62" ht="14.25" spans="1:2">
+      <c r="A62" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="6" t="s">
+    <row r="63" ht="14.25" spans="1:2">
+      <c r="A63" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B63" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="6" t="s">
+    <row r="64" ht="14.25" spans="1:2">
+      <c r="A64" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B64" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B64" s="6" t="s">
+    <row r="65" ht="14.25" spans="1:2">
+      <c r="A65" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="6" t="s">
+      <c r="B65" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B65" s="6" t="s">
+    </row>
+    <row r="66" ht="14.25" spans="1:2">
+      <c r="A66" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="6" t="s">
+      <c r="B66" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="6" t="s">
+    </row>
+    <row r="67" ht="14.25" spans="1:2">
+      <c r="A67" s="8" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="6" t="s">
+      <c r="B67" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B67" s="6" t="s">
+    </row>
+    <row r="68" ht="14.25" spans="1:2">
+      <c r="A68" s="8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="6" t="s">
+      <c r="B68" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B68" s="6" t="s">
+    </row>
+    <row r="69" ht="14.25" spans="1:2">
+      <c r="A69" s="8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" s="6" t="s">
+    <row r="70" ht="14.25" spans="1:2">
+      <c r="A70" s="8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="6" t="s">
+      <c r="B70" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B71" s="6" t="s">
+    </row>
+    <row r="71" ht="14.25" spans="1:2">
+      <c r="A71" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="6" t="s">
+    <row r="72" ht="14.25" spans="1:2">
+      <c r="A72" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B73" s="6" t="s">
+    <row r="73" ht="14.25" spans="1:2">
+      <c r="A73" s="8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="6" t="s">
+      <c r="B73" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B74" s="6" t="s">
+    </row>
+    <row r="74" ht="14.25" spans="1:2">
+      <c r="A74" s="8" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="6" t="s">
+      <c r="B74" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B75" s="6" t="s">
+    </row>
+    <row r="75" ht="14.25" spans="1:2">
+      <c r="A75" s="8" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="6" t="s">
+      <c r="B75" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B76" s="6" t="s">
+    </row>
+    <row r="76" ht="14.25" spans="1:2">
+      <c r="A76" s="8" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="6" t="s">
+      <c r="B76" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B77" s="6" t="s">
+    </row>
+    <row r="77" ht="14.25" spans="1:2">
+      <c r="A77" s="8" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="6" t="s">
+      <c r="B77" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B78" s="6" t="s">
+    </row>
+    <row r="78" ht="14.25" spans="1:2">
+      <c r="A78" s="8" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="6" t="s">
+      <c r="B78" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B79" s="6" t="s">
+    </row>
+    <row r="79" ht="14.25" spans="1:2">
+      <c r="A79" s="8" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="6" t="s">
+      <c r="B79" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B80" s="6" t="s">
+    </row>
+    <row r="80" ht="14.25" spans="1:2">
+      <c r="A80" s="8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="6" t="s">
+      <c r="B80" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B81" s="6" t="s">
+    </row>
+    <row r="81" ht="14.25" spans="1:2">
+      <c r="A81" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="6" t="s">
+    <row r="82" ht="14.25" spans="1:2">
+      <c r="A82" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B83" s="6" t="s">
+    <row r="83" ht="14.25" spans="1:2">
+      <c r="A83" s="8" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="6" t="s">
+      <c r="B83" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B84" s="6" t="s">
+    </row>
+    <row r="84" ht="14.25" spans="1:2">
+      <c r="A84" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="6" t="s">
+    <row r="85" ht="14.25" spans="1:2">
+      <c r="A85" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="6" t="s">
+    <row r="86" ht="14.25" spans="1:2">
+      <c r="A86" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="6" t="s">
+    <row r="87" ht="14.25" spans="1:2">
+      <c r="A87" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="6" t="s">
+    <row r="88" ht="14.25" spans="1:2">
+      <c r="A88" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="6" t="s">
+    <row r="89" ht="14.25" spans="1:2">
+      <c r="A89" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="6" t="s">
+    <row r="90" ht="14.25" spans="1:2">
+      <c r="A90" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="6" t="s">
+    <row r="91" ht="14.25" spans="1:2">
+      <c r="A91" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B91" s="7" t="s">
+    </row>
+    <row r="92" ht="14.25" spans="1:2">
+      <c r="A92" s="8" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="6" t="s">
+      <c r="B92" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B92" s="6" t="s">
+    </row>
+    <row r="93" ht="14.25" spans="1:2">
+      <c r="A93" s="8" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="6" t="s">
+      <c r="B93" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B93" s="6" t="s">
+    </row>
+    <row r="94" ht="14.25" spans="1:2">
+      <c r="A94" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="6" t="s">
+    <row r="95" ht="14.25" spans="1:2">
+      <c r="A95" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B95" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="95" ht="14.25" spans="1:2">
-      <c r="A95" s="5" t="s">
+    <row r="96" ht="14.25" spans="1:2">
+      <c r="A96" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B96" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="96" ht="14.25" spans="1:2">
-      <c r="A96" s="5" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" ht="14.25" spans="1:2">
-      <c r="A97" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="7" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="98" ht="14.25" spans="1:2">
-      <c r="A98" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B98" s="5" t="s">
+      <c r="A98" s="8" t="s">
         <v>184</v>
       </c>
+      <c r="B98" s="8" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="99" ht="14.25" spans="1:2">
-      <c r="A99" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>185</v>
+      <c r="A99" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:2">
-      <c r="A100" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>186</v>
+      <c r="A100" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:2">
-      <c r="A101" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B101" s="5" t="s">
+      <c r="A101" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="102" ht="14.25" spans="1:2">
-      <c r="A102" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B102" s="5" t="s">
+      <c r="A102" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="103" ht="14.25" spans="1:2">
-      <c r="A103" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>39</v>
+      <c r="A103" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="104" ht="14.25" spans="1:2">
-      <c r="A104" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B104" s="5" t="s">
+      <c r="A104" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="105" ht="14.25" spans="1:2">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="106" ht="14.25" spans="1:2">
-      <c r="A106" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>71</v>
+      <c r="A106" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:2">
-      <c r="A107" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B107" s="5" t="s">
+      <c r="A107" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:2">
-      <c r="A108" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>73</v>
+      <c r="A108" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:2">
-      <c r="A109" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B109" s="5" t="s">
+      <c r="A109" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25" spans="1:2">
+      <c r="A110" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B110" s="8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="110" ht="14.25" spans="1:2">
-      <c r="A110" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B110" s="5" t="s">
+    <row r="111" ht="14.25" spans="1:2">
+      <c r="A111" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" spans="1:2">
+      <c r="A112" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="111" ht="14.25" spans="1:2">
-      <c r="A111" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B111" s="5" t="s">
+    <row r="113" ht="14.25" spans="1:2">
+      <c r="A113" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="112" ht="14.25" spans="1:2">
-      <c r="A112" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B112" s="5" t="s">
+    <row r="114" ht="14.25" spans="1:2">
+      <c r="A114" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="113" ht="14.25" spans="1:2">
-      <c r="A113" s="5" t="s">
+    <row r="115" ht="14.25" spans="1:2">
+      <c r="A115" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B113" s="5" t="s">
+    </row>
+    <row r="116" ht="14.25" spans="1:2">
+      <c r="A116" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="114" ht="14.25" spans="1:2">
-      <c r="A114" s="5" t="s">
+    <row r="117" ht="14.25" spans="1:2">
+      <c r="A117" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B117" s="8" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25" spans="1:2">
+      <c r="A118" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/非受控文档/过程文档/优先级打分表（改）/需求总优先级打分表排序.xlsx
+++ b/非受控文档/过程文档/优先级打分表（改）/需求总优先级打分表排序.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201">
   <si>
     <t>软件工程系列课程教学辅助网站需求总优先级打分表（作者：G18）客户：教师：学生：管理员：游客=1.5：1：1：1：0.5</t>
   </si>
@@ -25,9 +25,6 @@
     <t>功能描述</t>
   </si>
   <si>
-    <t>优先级</t>
-  </si>
-  <si>
     <t>登录</t>
   </si>
   <si>
@@ -37,7 +34,7 @@
     <t>处理用户注册申请</t>
   </si>
   <si>
-    <t>在用户注册后接受用户注册信息，审核并选择是否通过用户注册，并给用户标明身份</t>
+    <t>在用户注册后接受用户注册信息，审核身份证信息以及身份证正反面照片的上传，并选择是否通过用户注册，并给用户标明身份</t>
   </si>
   <si>
     <t>删除用户</t>
@@ -172,12 +169,6 @@
     <t>对指定课程添加相关链接</t>
   </si>
   <si>
-    <t>修改课程相关链接</t>
-  </si>
-  <si>
-    <t>对指定课程修改相关链接</t>
-  </si>
-  <si>
     <t>删除课程相关链接</t>
   </si>
   <si>
@@ -418,7 +409,7 @@
     <t>教师注册</t>
   </si>
   <si>
-    <t>通过教工号，学校的邮箱，姓名和密码进行注册，发送注册信息至管理员由管理员审核</t>
+    <t>通过工作单位，学校的邮箱，姓名，电话号码，身份证以及上传身份证正反照片和密码进行注册，发送注册信息至管理员由管理员审核</t>
   </si>
   <si>
     <t>教师可以在删除课程资料</t>
@@ -571,7 +562,7 @@
     <t>学生注册</t>
   </si>
   <si>
-    <t>通过学号，学校的邮箱，姓名和密码进行注册，发送注册信息至管理员由管理员审核</t>
+    <t>通过学号，学校的邮箱，姓名，电话号码，身份证以及上传身份证正反面照片和密码进行注册，发送注册信息至管理员由管理员审核</t>
   </si>
   <si>
     <t>学生的登录、注销</t>
@@ -634,11 +625,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,12 +653,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -675,61 +671,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,38 +685,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -789,8 +700,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,12 +777,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -820,187 +817,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,35 +1013,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1060,21 +1042,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,8 +1064,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,6 +1093,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1119,10 +1116,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1131,137 +1128,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1277,19 +1274,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1611,17 +1614,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:O117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="36.75" customWidth="1"/>
-    <col min="2" max="2" width="115.5" customWidth="1"/>
-    <col min="3" max="3" width="52.25" customWidth="1"/>
+    <col min="2" max="2" width="83.375" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="13" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:15">
@@ -1650,932 +1662,922 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="4" ht="27" spans="1:2">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="6" t="s">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="5" t="s">
+      <c r="B51" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="5" t="s">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="5" t="s">
+      <c r="B55" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="7" t="s">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="7" t="s">
+      <c r="B58" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="7" t="s">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="59" ht="14.25" spans="1:2">
-      <c r="A59" s="8" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="8" t="s">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:2">
-      <c r="A60" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" s="8" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="61" ht="14.25" spans="1:2">
-      <c r="A61" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B61" s="8" t="s">
+      <c r="B62" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" ht="14.25" spans="1:2">
-      <c r="A62" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62" s="8" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="63" ht="14.25" spans="1:2">
-      <c r="A63" s="8" t="s">
+      <c r="B63" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B63" s="8" t="s">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="64" ht="14.25" spans="1:2">
-      <c r="A64" s="8" t="s">
+      <c r="B64" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="8" t="s">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="65" ht="14.25" spans="1:2">
-      <c r="A65" s="8" t="s">
+      <c r="B65" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B65" s="8" t="s">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="66" ht="14.25" spans="1:2">
-      <c r="A66" s="8" t="s">
+      <c r="B66" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B66" s="8" t="s">
+    </row>
+    <row r="67" ht="27" spans="1:2">
+      <c r="A67" s="9" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="67" ht="14.25" spans="1:2">
-      <c r="A67" s="8" t="s">
+      <c r="B67" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="8" t="s">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="68" ht="14.25" spans="1:2">
-      <c r="A68" s="8" t="s">
+      <c r="B68" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B68" s="8" t="s">
+    </row>
+    <row r="69" ht="27" spans="1:2">
+      <c r="A69" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="69" ht="14.25" spans="1:2">
-      <c r="A69" s="8" t="s">
+      <c r="B69" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B69" s="8" t="s">
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="70" ht="14.25" spans="1:2">
-      <c r="A70" s="8" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B71" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="71" ht="14.25" spans="1:2">
-      <c r="A71" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B71" s="8" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="72" ht="14.25" spans="1:2">
-      <c r="A72" s="8" t="s">
+      <c r="B72" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B72" s="8" t="s">
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="73" ht="14.25" spans="1:2">
-      <c r="A73" s="8" t="s">
+      <c r="B73" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B73" s="8" t="s">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="9" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="74" ht="14.25" spans="1:2">
-      <c r="A74" s="8" t="s">
+      <c r="B74" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B74" s="8" t="s">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="9" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="75" ht="14.25" spans="1:2">
-      <c r="A75" s="8" t="s">
+      <c r="B75" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B75" s="8" t="s">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="76" ht="14.25" spans="1:2">
-      <c r="A76" s="8" t="s">
+      <c r="B76" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B76" s="8" t="s">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="9" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="77" ht="14.25" spans="1:2">
-      <c r="A77" s="8" t="s">
+      <c r="B77" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="8" t="s">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="9" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="78" ht="14.25" spans="1:2">
-      <c r="A78" s="8" t="s">
+      <c r="B78" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B78" s="8" t="s">
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="9" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="79" ht="14.25" spans="1:2">
-      <c r="A79" s="8" t="s">
+      <c r="B79" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B79" s="8" t="s">
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="80" ht="14.25" spans="1:2">
-      <c r="A80" s="8" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B81" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="81" ht="14.25" spans="1:2">
-      <c r="A81" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="8" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="9" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="82" ht="14.25" spans="1:2">
-      <c r="A82" s="8" t="s">
+      <c r="B82" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B82" s="8" t="s">
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="83" ht="14.25" spans="1:2">
-      <c r="A83" s="8" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B84" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:2">
-      <c r="A84" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B84" s="8" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="9" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="85" ht="14.25" spans="1:2">
-      <c r="A85" s="8" t="s">
+      <c r="B85" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B85" s="8" t="s">
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="9" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="86" ht="14.25" spans="1:2">
-      <c r="A86" s="8" t="s">
+      <c r="B86" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B86" s="8" t="s">
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="9" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="87" ht="14.25" spans="1:2">
-      <c r="A87" s="8" t="s">
+      <c r="B87" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B87" s="8" t="s">
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="9" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="88" ht="14.25" spans="1:2">
-      <c r="A88" s="8" t="s">
+      <c r="B88" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B88" s="8" t="s">
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="9" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="89" ht="14.25" spans="1:2">
-      <c r="A89" s="8" t="s">
+      <c r="B89" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B89" s="8" t="s">
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="90" ht="14.25" spans="1:2">
-      <c r="A90" s="8" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B91" s="10" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="91" ht="14.25" spans="1:2">
-      <c r="A91" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B91" s="8" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="9" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="92" ht="14.25" spans="1:2">
-      <c r="A92" s="8" t="s">
+      <c r="B92" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B92" s="8" t="s">
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="93" ht="14.25" spans="1:2">
-      <c r="A93" s="8" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B94" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="94" ht="14.25" spans="1:2">
-      <c r="A94" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B94" s="8" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" s="9" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="95" ht="14.25" spans="1:2">
-      <c r="A95" s="8" t="s">
+      <c r="B95" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B95" s="8" t="s">
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="7" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="96" ht="14.25" spans="1:2">
-      <c r="A96" s="8" t="s">
+      <c r="B96" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B96" s="8" t="s">
+    </row>
+    <row r="97" ht="27" spans="1:2">
+      <c r="A97" s="9" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="7" t="s">
+      <c r="B97" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B97" s="7" t="s">
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="9" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="98" ht="14.25" spans="1:2">
-      <c r="A98" s="8" t="s">
+      <c r="B98" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B98" s="8" t="s">
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="99" ht="14.25" spans="1:2">
-      <c r="A99" s="8" t="s">
+    <row r="101" spans="1:2">
+      <c r="A101" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25" spans="1:2">
-      <c r="A100" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B100" s="8" t="s">
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B102" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="101" ht="14.25" spans="1:2">
-      <c r="A101" s="8" t="s">
+    <row r="103" ht="27" spans="1:2">
+      <c r="A103" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="102" ht="14.25" spans="1:2">
-      <c r="A102" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25" spans="1:2">
-      <c r="A103" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B103" s="8" t="s">
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="104" ht="14.25" spans="1:2">
-      <c r="A104" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B104" s="8" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="105" ht="14.25" spans="1:2">
-      <c r="A105" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B105" s="8" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="106" ht="14.25" spans="1:2">
-      <c r="A106" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="107" ht="14.25" spans="1:2">
-      <c r="A107" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B107" s="8" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="108" ht="14.25" spans="1:2">
-      <c r="A108" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" ht="14.25" spans="1:2">
-      <c r="A109" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="110" ht="14.25" spans="1:2">
-      <c r="A110" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B110" s="8" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="111" ht="14.25" spans="1:2">
-      <c r="A111" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="112" ht="14.25" spans="1:2">
-      <c r="A112" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B112" s="8" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="113" ht="14.25" spans="1:2">
-      <c r="A113" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B113" s="8" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="114" ht="14.25" spans="1:2">
-      <c r="A114" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B114" s="8" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" s="9" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="115" ht="14.25" spans="1:2">
-      <c r="A115" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B115" s="8" t="s">
+      <c r="B116" s="10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="116" ht="14.25" spans="1:2">
-      <c r="A116" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B116" s="8" t="s">
+    <row r="117" ht="14.25" spans="1:2">
+      <c r="A117" s="11" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="117" ht="14.25" spans="1:2">
-      <c r="A117" s="8" t="s">
+      <c r="B117" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="118" ht="14.25" spans="1:2">
-      <c r="A118" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
